--- a/Project/and7697_sprint3/Product Backlog.xlsx
+++ b/Project/and7697_sprint3/Product Backlog.xlsx
@@ -851,881 +851,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Product Backlog Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Product Backlog'!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Product Backlog'!$A$8:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Product Backlog'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="95772029"/>
-        <c:axId val="18625508"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="95772029"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Sprint Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="18625508"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="18625508"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Features Left at End of Sprint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95772029"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>Product Backlog Burn Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Left</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="6022292400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="6035662080">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7e0021"/>
-              </a:solidFill>
-              <a:ln w="2972724840">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="83caff">
-                  <a:alpha val="-47148408"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="3109385880">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>categories</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Start</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sprint 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Sprint 2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sprint 3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sprint 4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sprint 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="0"/>
-        <c:axId val="81013298"/>
-        <c:axId val="28930594"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="81013298"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Sprint Number</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28930594"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="28930594"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Features Left at End of Sprint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81013298"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2033,11 +1159,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="29529010"/>
-        <c:axId val="27463863"/>
+        <c:axId val="28632696"/>
+        <c:axId val="56537255"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29529010"/>
+        <c:axId val="28632696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,14 +1237,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27463863"/>
+        <c:crossAx val="56537255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27463863"/>
+        <c:axId val="56537255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,7 +1325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29529010"/>
+        <c:crossAx val="28632696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2227,7 +1353,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2535,11 +1661,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="90499946"/>
-        <c:axId val="13907239"/>
+        <c:axId val="25782435"/>
+        <c:axId val="84568484"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90499946"/>
+        <c:axId val="25782435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,14 +1739,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13907239"/>
+        <c:crossAx val="84568484"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13907239"/>
+        <c:axId val="84568484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +1827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90499946"/>
+        <c:crossAx val="25782435"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2729,7 +1855,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3037,11 +2163,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="36143767"/>
-        <c:axId val="90113778"/>
+        <c:axId val="56593680"/>
+        <c:axId val="77296336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36143767"/>
+        <c:axId val="56593680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,14 +2241,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90113778"/>
+        <c:crossAx val="77296336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90113778"/>
+        <c:axId val="77296336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,7 +2329,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36143767"/>
+        <c:crossAx val="56593680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3231,7 +2357,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3539,11 +2665,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="80769315"/>
-        <c:axId val="83951848"/>
+        <c:axId val="52179829"/>
+        <c:axId val="7684416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80769315"/>
+        <c:axId val="52179829"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3617,14 +2743,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83951848"/>
+        <c:crossAx val="7684416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83951848"/>
+        <c:axId val="7684416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3705,7 +2831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80769315"/>
+        <c:crossAx val="52179829"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3733,7 +2859,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4041,11 +3167,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="88633843"/>
-        <c:axId val="44234767"/>
+        <c:axId val="74122643"/>
+        <c:axId val="95045819"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88633843"/>
+        <c:axId val="74122643"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,14 +3245,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44234767"/>
+        <c:crossAx val="95045819"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44234767"/>
+        <c:axId val="95045819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,7 +3333,929 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88633843"/>
+        <c:crossAx val="74122643"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Product Backlog Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Product Backlog'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Product Backlog'!$A$8:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Product Backlog'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="20040620"/>
+        <c:axId val="25703576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="20040620"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Sprint Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25703576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="25703576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Features Left at End of Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20040620"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Product Backlog Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="5b9bd5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>categories</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Start</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sprint 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sprint 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sprint 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="96177975"/>
+        <c:axId val="26550505"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96177975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Sprint Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="MM/DD/YYYY" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="d9d9d9"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26550505"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26550505"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Features Left at End of Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96177975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4246,9 +4294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4256,8 +4304,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5781600" y="87480"/>
-        <a:ext cx="12251520" cy="2740320"/>
+        <a:off x="5790960" y="87480"/>
+        <a:ext cx="12327480" cy="2739960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4276,9 +4324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
+      <xdr:colOff>204480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4286,8 +4334,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5724360" y="80640"/>
-        <a:ext cx="11882520" cy="2628000"/>
+        <a:off x="5733720" y="80640"/>
+        <a:ext cx="11958480" cy="2627640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4311,9 +4359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4322,7 +4370,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2916360" y="23040"/>
-        <a:ext cx="7813800" cy="2747880"/>
+        <a:ext cx="7860960" cy="2747520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4346,9 +4394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4357,7 +4405,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5636160" cy="2740320"/>
+        <a:ext cx="5635800" cy="2739960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4381,9 +4429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4392,7 +4440,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5636160" cy="2740320"/>
+        <a:ext cx="5635800" cy="2739960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4416,9 +4464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4427,7 +4475,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5636160" cy="2740320"/>
+        <a:ext cx="5635800" cy="2739960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4451,9 +4499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>332640</xdr:colOff>
+      <xdr:colOff>332280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4462,7 +4510,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2478240" y="23040"/>
-        <a:ext cx="5636160" cy="2740320"/>
+        <a:ext cx="5635800" cy="2739960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4491,10 +4539,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.3805668016194"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -4601,15 +4649,14 @@
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">C10-D11</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">COUNT(B21:B106)</f>
         <v>28</v>
       </c>
       <c r="D11" s="1" t="n">
-        <f aca="false">D10</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>43205</v>
@@ -4621,7 +4668,7 @@
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">C11-D12</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">COUNT(B21:B107)</f>
@@ -4629,7 +4676,7 @@
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">D11</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>43212</v>
@@ -4641,7 +4688,7 @@
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">C12-D13</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">COUNT(B21:B108)</f>
@@ -4649,7 +4696,7 @@
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">D12</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>43219</v>
@@ -4980,6 +5027,9 @@
       <c r="D30" s="8" t="n">
         <v>2</v>
       </c>
+      <c r="E30" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="F30" s="8" t="s">
         <v>29</v>
       </c>
@@ -5005,6 +5055,9 @@
         <v>49</v>
       </c>
       <c r="D31" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" s="9" t="n">
         <v>3</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -5510,8 +5563,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
